--- a/natmiOut/OldD7/LR-pairs_lrc2p/Colq-Musk.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Colq-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Colq</t>
   </si>
   <si>
     <t>Musk</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +531,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.0694442678594777</v>
+        <v>0.0007963333333333334</v>
       </c>
       <c r="H2">
-        <v>0.0694442678594777</v>
+        <v>0.002389</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.006887445475591229</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.006887445475591229</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>9.35584430036223</v>
+        <v>0.2865536666666667</v>
       </c>
       <c r="N2">
-        <v>9.35584430036223</v>
+        <v>0.859661</v>
       </c>
       <c r="O2">
-        <v>0.5437172716976849</v>
+        <v>0.01543253808802733</v>
       </c>
       <c r="P2">
-        <v>0.5437172716976849</v>
+        <v>0.01543253808802733</v>
       </c>
       <c r="Q2">
-        <v>0.6497097576459225</v>
+        <v>0.0002281922365555556</v>
       </c>
       <c r="R2">
-        <v>0.6497097576459225</v>
+        <v>0.002053730129</v>
       </c>
       <c r="S2">
-        <v>0.5437172716976849</v>
+        <v>0.0001062907646312732</v>
       </c>
       <c r="T2">
-        <v>0.5437172716976849</v>
+        <v>0.0001062907646312732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,495 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.0007963333333333334</v>
+      </c>
+      <c r="H3">
+        <v>0.002389</v>
+      </c>
+      <c r="I3">
+        <v>0.006887445475591229</v>
+      </c>
+      <c r="J3">
+        <v>0.006887445475591229</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>9.389971666666668</v>
+      </c>
+      <c r="N3">
+        <v>28.169915</v>
+      </c>
+      <c r="O3">
+        <v>0.5057031622627903</v>
+      </c>
+      <c r="P3">
+        <v>0.5057031622627903</v>
+      </c>
+      <c r="Q3">
+        <v>0.007477547437222223</v>
+      </c>
+      <c r="R3">
+        <v>0.06729792693500002</v>
+      </c>
+      <c r="S3">
+        <v>0.003483002956919032</v>
+      </c>
+      <c r="T3">
+        <v>0.003483002956919033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.0007963333333333334</v>
+      </c>
+      <c r="H4">
+        <v>0.002389</v>
+      </c>
+      <c r="I4">
+        <v>0.006887445475591229</v>
+      </c>
+      <c r="J4">
+        <v>0.006887445475591229</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>8.891623666666666</v>
+      </c>
+      <c r="N4">
+        <v>26.674871</v>
+      </c>
+      <c r="O4">
+        <v>0.4788642996491824</v>
+      </c>
+      <c r="P4">
+        <v>0.4788642996491824</v>
+      </c>
+      <c r="Q4">
+        <v>0.007080696313222222</v>
+      </c>
+      <c r="R4">
+        <v>0.063726266819</v>
+      </c>
+      <c r="S4">
+        <v>0.003298151754040924</v>
+      </c>
+      <c r="T4">
+        <v>0.003298151754040924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.0694442678594777</v>
-      </c>
-      <c r="H3">
-        <v>0.0694442678594777</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>7.85134183729687</v>
-      </c>
-      <c r="N3">
-        <v>7.85134183729687</v>
-      </c>
-      <c r="O3">
-        <v>0.4562827283023151</v>
-      </c>
-      <c r="P3">
-        <v>0.4562827283023151</v>
-      </c>
-      <c r="Q3">
-        <v>0.5452306856055676</v>
-      </c>
-      <c r="R3">
-        <v>0.5452306856055676</v>
-      </c>
-      <c r="S3">
-        <v>0.4562827283023151</v>
-      </c>
-      <c r="T3">
-        <v>0.4562827283023151</v>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.09240733333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.277222</v>
+      </c>
+      <c r="I5">
+        <v>0.7992262074651952</v>
+      </c>
+      <c r="J5">
+        <v>0.7992262074651952</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2865536666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.859661</v>
+      </c>
+      <c r="O5">
+        <v>0.01543253808802733</v>
+      </c>
+      <c r="P5">
+        <v>0.01543253808802733</v>
+      </c>
+      <c r="Q5">
+        <v>0.02647966019355555</v>
+      </c>
+      <c r="R5">
+        <v>0.238316941742</v>
+      </c>
+      <c r="S5">
+        <v>0.01233408888765626</v>
+      </c>
+      <c r="T5">
+        <v>0.01233408888765626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.09240733333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.277222</v>
+      </c>
+      <c r="I6">
+        <v>0.7992262074651952</v>
+      </c>
+      <c r="J6">
+        <v>0.7992262074651952</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>9.389971666666668</v>
+      </c>
+      <c r="N6">
+        <v>28.169915</v>
+      </c>
+      <c r="O6">
+        <v>0.5057031622627903</v>
+      </c>
+      <c r="P6">
+        <v>0.5057031622627903</v>
+      </c>
+      <c r="Q6">
+        <v>0.8677022417922222</v>
+      </c>
+      <c r="R6">
+        <v>7.80932017613</v>
+      </c>
+      <c r="S6">
+        <v>0.4041712204784462</v>
+      </c>
+      <c r="T6">
+        <v>0.4041712204784462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.09240733333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.277222</v>
+      </c>
+      <c r="I7">
+        <v>0.7992262074651952</v>
+      </c>
+      <c r="J7">
+        <v>0.7992262074651952</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>8.891623666666666</v>
+      </c>
+      <c r="N7">
+        <v>26.674871</v>
+      </c>
+      <c r="O7">
+        <v>0.4788642996491824</v>
+      </c>
+      <c r="P7">
+        <v>0.4788642996491824</v>
+      </c>
+      <c r="Q7">
+        <v>0.8216512320402221</v>
+      </c>
+      <c r="R7">
+        <v>7.394861088361999</v>
+      </c>
+      <c r="S7">
+        <v>0.3827208980990929</v>
+      </c>
+      <c r="T7">
+        <v>0.3827208980990928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.02241733333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.06725200000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.1938863470592136</v>
+      </c>
+      <c r="J8">
+        <v>0.1938863470592136</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2865536666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.859661</v>
+      </c>
+      <c r="O8">
+        <v>0.01543253808802733</v>
+      </c>
+      <c r="P8">
+        <v>0.01543253808802733</v>
+      </c>
+      <c r="Q8">
+        <v>0.006423769063555555</v>
+      </c>
+      <c r="R8">
+        <v>0.05781392157200001</v>
+      </c>
+      <c r="S8">
+        <v>0.002992158435739801</v>
+      </c>
+      <c r="T8">
+        <v>0.002992158435739801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.02241733333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.06725200000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.1938863470592136</v>
+      </c>
+      <c r="J9">
+        <v>0.1938863470592136</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.389971666666668</v>
+      </c>
+      <c r="N9">
+        <v>28.169915</v>
+      </c>
+      <c r="O9">
+        <v>0.5057031622627903</v>
+      </c>
+      <c r="P9">
+        <v>0.5057031622627903</v>
+      </c>
+      <c r="Q9">
+        <v>0.2104981248422222</v>
+      </c>
+      <c r="R9">
+        <v>1.89448312358</v>
+      </c>
+      <c r="S9">
+        <v>0.09804893882742519</v>
+      </c>
+      <c r="T9">
+        <v>0.0980489388274252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02241733333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.06725200000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.1938863470592136</v>
+      </c>
+      <c r="J10">
+        <v>0.1938863470592136</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.891623666666666</v>
+      </c>
+      <c r="N10">
+        <v>26.674871</v>
+      </c>
+      <c r="O10">
+        <v>0.4788642996491824</v>
+      </c>
+      <c r="P10">
+        <v>0.4788642996491824</v>
+      </c>
+      <c r="Q10">
+        <v>0.1993264916102222</v>
+      </c>
+      <c r="R10">
+        <v>1.793938424492</v>
+      </c>
+      <c r="S10">
+        <v>0.09284524979604865</v>
+      </c>
+      <c r="T10">
+        <v>0.09284524979604865</v>
       </c>
     </row>
   </sheetData>
